--- a/test_report/2021年04月15日/UI自动化测试报告_全量测试_20210415_003141.xlsx
+++ b/test_report/2021年04月15日/UI自动化测试报告_全量测试_20210415_003141.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project_dir\UIKeywordFramework\test_report\2021年04月15日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_repository\UIKeywordFramework\test_report\2021年04月15日\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8CE6AA-702F-400D-9BBD-328968EE513C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC22FE-BAB8-4163-A995-DD3E4DD7B940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="975" windowWidth="15375" windowHeight="8760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例集" sheetId="1" r:id="rId1"/>
     <sheet name="登录（数据驱动）" sheetId="2" r:id="rId2"/>
-    <sheet name="登录（非数据驱动）" sheetId="3" r:id="rId3"/>
-    <sheet name="添加联系人（数据驱动）" sheetId="4" r:id="rId4"/>
-    <sheet name="关闭浏览器" sheetId="5" r:id="rId5"/>
-    <sheet name="登录数据" sheetId="6" r:id="rId6"/>
-    <sheet name="联系人数据" sheetId="7" r:id="rId7"/>
+    <sheet name="登录数据" sheetId="6" r:id="rId3"/>
+    <sheet name="登录（非数据驱动）" sheetId="3" r:id="rId4"/>
+    <sheet name="添加联系人（数据驱动）" sheetId="4" r:id="rId5"/>
+    <sheet name="联系人数据" sheetId="7" r:id="rId6"/>
+    <sheet name="关闭浏览器" sheetId="5" r:id="rId7"/>
     <sheet name="测试结果统计" sheetId="8" r:id="rId8"/>
     <sheet name="测试结果明细" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>${登录成功断言}</t>
-  </si>
-  <si>
-    <t>juno3550</t>
-  </si>
-  <si>
-    <t>258978aa</t>
   </si>
   <si>
     <t>等待2秒</t>
@@ -468,6 +462,9 @@
   </si>
   <si>
     <t>操作动作</t>
+  </si>
+  <si>
+    <t>*******</t>
   </si>
 </sst>
 </file>
@@ -904,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>32</v>
@@ -1163,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1384,11 +1381,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="4" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1410,7 +1470,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>32</v>
@@ -1550,7 +1610,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>39</v>
@@ -1577,7 +1637,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>39</v>
@@ -1637,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>62</v>
@@ -1668,7 +1728,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>39</v>
@@ -1688,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -1715,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>32</v>
@@ -1747,16 +1807,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -1772,16 +1832,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -1797,19 +1857,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>39</v>
@@ -1824,19 +1884,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>39</v>
@@ -1851,19 +1911,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>39</v>
@@ -1878,19 +1938,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>39</v>
@@ -1905,16 +1965,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
@@ -1930,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>62</v>
@@ -1953,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>64</v>
@@ -1961,7 +2021,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>39</v>
@@ -1981,7 +2041,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13301111111</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13301222222</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13303333333</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2006,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>32</v>
@@ -2041,7 +2196,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2058,164 +2213,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="4" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="5">
-        <v>13301111111</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="5">
-        <v>13301222222</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13303333333</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2234,13 +2231,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2324,10 +2321,10 @@
         <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -2351,10 +2348,10 @@
         <v>39</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2380,10 +2377,10 @@
         <v>39</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -2409,10 +2406,10 @@
         <v>39</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -2434,16 +2431,16 @@
         <v>49</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2465,16 +2462,16 @@
         <v>54</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -2500,10 +2497,10 @@
         <v>39</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2525,10 +2522,10 @@
         <v>39</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2552,10 +2549,10 @@
         <v>39</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2573,22 +2570,22 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2655,10 +2652,10 @@
         <v>18</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2715,10 +2712,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -2742,10 +2739,10 @@
         <v>39</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2771,10 +2768,10 @@
         <v>39</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2800,10 +2797,10 @@
         <v>39</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2825,16 +2822,16 @@
         <v>49</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2856,16 +2853,16 @@
         <v>54</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2891,10 +2888,10 @@
         <v>39</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -2916,10 +2913,10 @@
         <v>39</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2943,10 +2940,10 @@
         <v>39</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -2964,16 +2961,16 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -3042,10 +3039,10 @@
         <v>18</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3088,26 +3085,26 @@
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -3117,26 +3114,26 @@
         <v>3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -3146,28 +3143,28 @@
         <v>4</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -3177,28 +3174,28 @@
         <v>5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -3208,28 +3205,28 @@
         <v>6</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -3239,28 +3236,28 @@
         <v>7</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
@@ -3270,26 +3267,26 @@
         <v>8</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
@@ -3299,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>62</v>
@@ -3313,10 +3310,10 @@
         <v>39</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
@@ -3326,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>64</v>
@@ -3334,16 +3331,16 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -3412,10 +3409,10 @@
         <v>18</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3458,26 +3455,26 @@
         <v>2</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -3487,26 +3484,26 @@
         <v>3</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -3516,28 +3513,28 @@
         <v>4</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -3547,28 +3544,28 @@
         <v>5</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
@@ -3578,28 +3575,28 @@
         <v>6</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -3609,28 +3606,28 @@
         <v>7</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
@@ -3640,26 +3637,26 @@
         <v>8</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
@@ -3669,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>62</v>
@@ -3683,10 +3680,10 @@
         <v>39</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
@@ -3696,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>64</v>
@@ -3704,16 +3701,16 @@
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -3782,10 +3779,10 @@
         <v>18</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3828,26 +3825,26 @@
         <v>2</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
@@ -3857,26 +3854,26 @@
         <v>3</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
@@ -3886,28 +3883,28 @@
         <v>4</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -3917,28 +3914,28 @@
         <v>5</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -3948,28 +3945,28 @@
         <v>6</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -3979,28 +3976,28 @@
         <v>7</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -4010,26 +4007,26 @@
         <v>8</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
@@ -4039,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>62</v>
@@ -4053,10 +4050,10 @@
         <v>39</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -4066,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>64</v>
@@ -4074,16 +4071,16 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
@@ -4152,10 +4149,10 @@
         <v>18</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4221,7 +4218,7 @@
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -4267,7 +4264,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -4276,10 +4273,10 @@
         <v>39</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
@@ -4346,10 +4343,10 @@
         <v>18</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
